--- a/src/test/resources/OpportunityTestData.xlsx
+++ b/src/test/resources/OpportunityTestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaPracticeWorkBeanch\WASM6-Vtiger.Framework\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB9122E-1776-4A92-B6C9-BF5327D776C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{05A8F83A-6605-48DA-B510-27CE798A43E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RelatedTo" sheetId="1" r:id="rId1"/>
     <sheet name="LeadSource" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,11 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -441,27 +436,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -474,77 +469,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DB4427-92AE-4593-A0E7-CCC29F25B076}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
